--- a/Software/Agile Controls Simulation/ParameterConfig.xlsx
+++ b/Software/Agile Controls Simulation/ParameterConfig.xlsx
@@ -44,12 +44,6 @@
     <t>Shank CG (from knee) [m]</t>
   </si>
   <si>
-    <t>Shank Moment [m4]</t>
-  </si>
-  <si>
-    <t>Thigh Moment [m4]</t>
-  </si>
-  <si>
     <t>Thigh Distance [cm]</t>
   </si>
   <si>
@@ -60,6 +54,12 @@
   </si>
   <si>
     <t>Body CG [m from front]</t>
+  </si>
+  <si>
+    <t>Thigh Inertia [m4]</t>
+  </si>
+  <si>
+    <t>Shank Inertia [m4]</t>
   </si>
 </sst>
 </file>
@@ -588,34 +588,35 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>0.25</v>
+        <f>B2/2</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>43.3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6">
-        <v>2.562E-3</v>
+        <v>6.7929000000000004E-4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -623,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -631,23 +632,23 @@
         <v>2</v>
       </c>
       <c r="B7" s="4">
-        <v>0.96</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6">
-        <v>2.24E-4</v>
+        <v>5.1042000000000004E-4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -655,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>6.0999999999999999E-2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -663,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>0.93</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
